--- a/Import_Inventory/18.-1.2 คลังสิ้นเปลืองโรงงาน.xlsx
+++ b/Import_Inventory/18.-1.2 คลังสิ้นเปลืองโรงงาน.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>partner_id</t>
   </si>
@@ -367,9 +367,6 @@
     <t>PACK00261</t>
   </si>
   <si>
-    <t>PUK_PVC_#8</t>
-  </si>
-  <si>
     <t>SP0017100</t>
   </si>
   <si>
@@ -386,15 +383,6 @@
   </si>
   <si>
     <t>SSP00076</t>
-  </si>
-  <si>
-    <t>SSP00085</t>
-  </si>
-  <si>
-    <t>SSP00086</t>
-  </si>
-  <si>
-    <t>SSP00087</t>
   </si>
   <si>
     <t>SSP00096</t>
@@ -473,9 +461,6 @@
   </si>
   <si>
     <t>SSP00218</t>
-  </si>
-  <si>
-    <t>SSP00069</t>
   </si>
   <si>
     <t>SSP00224</t>
@@ -566,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -589,13 +574,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -615,6 +637,15 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -786,9 +817,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -868,7 +899,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -895,10 +926,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1145,9 +1176,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1425,7 +1456,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1452,10 +1483,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -24266,8 +24297,8 @@
       <c r="F645" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G645" t="s" s="2">
-        <v>118</v>
+      <c r="G645" s="6">
+        <v>409230010</v>
       </c>
       <c r="H645" s="4">
         <v>22536</v>
@@ -24301,8 +24332,8 @@
       <c r="F646" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G646" t="s" s="2">
-        <v>118</v>
+      <c r="G646" s="6">
+        <v>409230010</v>
       </c>
       <c r="H646" s="4">
         <v>314</v>
@@ -24336,8 +24367,8 @@
       <c r="F647" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G647" t="s" s="2">
-        <v>118</v>
+      <c r="G647" s="6">
+        <v>409230010</v>
       </c>
       <c r="H647" s="4">
         <v>314</v>
@@ -24371,8 +24402,8 @@
       <c r="F648" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G648" t="s" s="2">
-        <v>118</v>
+      <c r="G648" s="6">
+        <v>409230010</v>
       </c>
       <c r="H648" s="4">
         <v>314</v>
@@ -24407,7 +24438,7 @@
         <v>14</v>
       </c>
       <c r="G649" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H649" s="4">
         <v>49</v>
@@ -24442,7 +24473,7 @@
         <v>14</v>
       </c>
       <c r="G650" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H650" s="4">
         <v>1024</v>
@@ -24477,7 +24508,7 @@
         <v>14</v>
       </c>
       <c r="G651" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H651" s="4">
         <v>17</v>
@@ -24512,7 +24543,7 @@
         <v>14</v>
       </c>
       <c r="G652" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H652" s="4">
         <v>6</v>
@@ -24547,7 +24578,7 @@
         <v>14</v>
       </c>
       <c r="G653" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H653" s="4">
         <v>10</v>
@@ -24582,7 +24613,7 @@
         <v>14</v>
       </c>
       <c r="G654" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H654" s="4">
         <v>13</v>
@@ -24617,7 +24648,7 @@
         <v>14</v>
       </c>
       <c r="G655" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H655" s="4">
         <v>13</v>
@@ -24651,8 +24682,8 @@
       <c r="F656" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G656" t="s" s="2">
-        <v>125</v>
+      <c r="G656" s="7">
+        <v>501290004</v>
       </c>
       <c r="H656" s="4">
         <v>21</v>
@@ -24686,8 +24717,8 @@
       <c r="F657" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G657" t="s" s="2">
-        <v>126</v>
+      <c r="G657" s="8">
+        <v>501290005</v>
       </c>
       <c r="H657" s="4">
         <v>10</v>
@@ -24721,8 +24752,8 @@
       <c r="F658" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G658" t="s" s="2">
-        <v>127</v>
+      <c r="G658" s="9">
+        <v>501290006</v>
       </c>
       <c r="H658" s="4">
         <v>4</v>
@@ -24757,7 +24788,7 @@
         <v>14</v>
       </c>
       <c r="G659" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H659" s="4">
         <v>11</v>
@@ -24792,7 +24823,7 @@
         <v>14</v>
       </c>
       <c r="G660" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H660" s="4">
         <v>149</v>
@@ -24827,7 +24858,7 @@
         <v>14</v>
       </c>
       <c r="G661" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H661" s="4">
         <v>20</v>
@@ -25877,7 +25908,7 @@
         <v>14</v>
       </c>
       <c r="G691" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H691" s="4">
         <v>90</v>
@@ -25946,8 +25977,8 @@
       <c r="F693" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G693" t="s" s="2">
-        <v>127</v>
+      <c r="G693" s="6">
+        <v>501290006</v>
       </c>
       <c r="H693" s="4">
         <v>20</v>
@@ -26157,7 +26188,7 @@
         <v>14</v>
       </c>
       <c r="G699" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H699" s="4">
         <v>544</v>
@@ -26192,7 +26223,7 @@
         <v>14</v>
       </c>
       <c r="G700" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H700" s="4">
         <v>647</v>
@@ -26402,7 +26433,7 @@
         <v>14</v>
       </c>
       <c r="G706" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H706" s="4">
         <v>697</v>
@@ -26437,7 +26468,7 @@
         <v>14</v>
       </c>
       <c r="G707" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H707" s="4">
         <v>14</v>
@@ -26472,7 +26503,7 @@
         <v>14</v>
       </c>
       <c r="G708" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H708" s="4">
         <v>5</v>
@@ -26577,7 +26608,7 @@
         <v>14</v>
       </c>
       <c r="G711" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H711" s="4">
         <v>1</v>
@@ -26752,7 +26783,7 @@
         <v>14</v>
       </c>
       <c r="G716" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H716" s="4">
         <v>3</v>
@@ -26787,7 +26818,7 @@
         <v>14</v>
       </c>
       <c r="G717" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H717" s="4">
         <v>5</v>
@@ -27102,7 +27133,7 @@
         <v>14</v>
       </c>
       <c r="G726" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H726" s="4">
         <v>4</v>
@@ -27242,7 +27273,7 @@
         <v>14</v>
       </c>
       <c r="G730" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H730" s="4">
         <v>5</v>
@@ -27312,7 +27343,7 @@
         <v>14</v>
       </c>
       <c r="G732" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H732" s="4">
         <v>3</v>
@@ -27417,7 +27448,7 @@
         <v>14</v>
       </c>
       <c r="G735" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H735" s="4">
         <v>34</v>
@@ -27452,7 +27483,7 @@
         <v>14</v>
       </c>
       <c r="G736" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H736" s="4">
         <v>50</v>
@@ -27487,7 +27518,7 @@
         <v>14</v>
       </c>
       <c r="G737" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H737" s="4">
         <v>100</v>
@@ -28117,7 +28148,7 @@
         <v>14</v>
       </c>
       <c r="G755" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H755" s="4">
         <v>470</v>
@@ -28362,7 +28393,7 @@
         <v>14</v>
       </c>
       <c r="G762" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H762" s="4">
         <v>573</v>
@@ -29412,7 +29443,7 @@
         <v>14</v>
       </c>
       <c r="G792" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H792" s="4">
         <v>1</v>
@@ -29587,7 +29618,7 @@
         <v>14</v>
       </c>
       <c r="G797" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H797" s="4">
         <v>5</v>
@@ -29657,7 +29688,7 @@
         <v>14</v>
       </c>
       <c r="G799" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H799" s="4">
         <v>80</v>
@@ -29692,7 +29723,7 @@
         <v>14</v>
       </c>
       <c r="G800" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H800" s="4">
         <v>4</v>
@@ -29867,7 +29898,7 @@
         <v>14</v>
       </c>
       <c r="G805" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H805" s="4">
         <v>290</v>
@@ -29937,7 +29968,7 @@
         <v>14</v>
       </c>
       <c r="G807" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H807" s="4">
         <v>5</v>
@@ -30077,7 +30108,7 @@
         <v>14</v>
       </c>
       <c r="G811" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H811" s="4">
         <v>74</v>
@@ -30147,7 +30178,7 @@
         <v>14</v>
       </c>
       <c r="G813" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H813" s="4">
         <v>26</v>
@@ -30182,7 +30213,7 @@
         <v>14</v>
       </c>
       <c r="G814" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H814" s="4">
         <v>32</v>
@@ -30217,7 +30248,7 @@
         <v>14</v>
       </c>
       <c r="G815" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H815" s="4">
         <v>1</v>
@@ -30252,7 +30283,7 @@
         <v>14</v>
       </c>
       <c r="G816" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H816" s="4">
         <v>25</v>
@@ -30287,7 +30318,7 @@
         <v>14</v>
       </c>
       <c r="G817" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H817" s="4">
         <v>20</v>
@@ -30322,7 +30353,7 @@
         <v>14</v>
       </c>
       <c r="G818" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H818" s="4">
         <v>39</v>
@@ -30357,7 +30388,7 @@
         <v>14</v>
       </c>
       <c r="G819" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H819" s="4">
         <v>51</v>
@@ -30392,7 +30423,7 @@
         <v>14</v>
       </c>
       <c r="G820" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H820" s="4">
         <v>140</v>
@@ -30637,7 +30668,7 @@
         <v>14</v>
       </c>
       <c r="G827" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H827" s="4">
         <v>1</v>
@@ -30882,7 +30913,7 @@
         <v>14</v>
       </c>
       <c r="G834" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H834" s="4">
         <v>4</v>
@@ -30952,7 +30983,7 @@
         <v>14</v>
       </c>
       <c r="G836" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H836" s="4">
         <v>4</v>
@@ -31512,7 +31543,7 @@
         <v>14</v>
       </c>
       <c r="G852" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H852" s="4">
         <v>25</v>
@@ -31546,8 +31577,8 @@
       <c r="F853" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G853" t="s" s="2">
-        <v>154</v>
+      <c r="G853" s="6">
+        <v>505020001</v>
       </c>
       <c r="H853" s="4">
         <v>8</v>
@@ -32177,7 +32208,7 @@
         <v>14</v>
       </c>
       <c r="G871" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H871" s="4">
         <v>2</v>
@@ -32212,7 +32243,7 @@
         <v>14</v>
       </c>
       <c r="G872" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H872" s="4">
         <v>379</v>
@@ -32387,7 +32418,7 @@
         <v>14</v>
       </c>
       <c r="G877" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H877" s="4">
         <v>7</v>
@@ -32457,7 +32488,7 @@
         <v>14</v>
       </c>
       <c r="G879" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H879" s="4">
         <v>1</v>
@@ -32947,7 +32978,7 @@
         <v>14</v>
       </c>
       <c r="G893" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H893" s="4">
         <v>2</v>
@@ -33157,7 +33188,7 @@
         <v>14</v>
       </c>
       <c r="G899" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H899" s="4">
         <v>2</v>
@@ -33192,7 +33223,7 @@
         <v>14</v>
       </c>
       <c r="G900" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H900" s="4">
         <v>2</v>
@@ -33262,7 +33293,7 @@
         <v>14</v>
       </c>
       <c r="G902" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H902" s="4">
         <v>20</v>
@@ -33367,7 +33398,7 @@
         <v>14</v>
       </c>
       <c r="G905" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H905" s="4">
         <v>79</v>
@@ -33437,7 +33468,7 @@
         <v>14</v>
       </c>
       <c r="G907" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H907" s="4">
         <v>3</v>
@@ -34452,7 +34483,7 @@
         <v>14</v>
       </c>
       <c r="G936" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H936" s="4">
         <v>17</v>
@@ -34592,7 +34623,7 @@
         <v>14</v>
       </c>
       <c r="G940" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H940" s="4">
         <v>36500</v>
@@ -34627,7 +34658,7 @@
         <v>14</v>
       </c>
       <c r="G941" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H941" s="4">
         <v>5</v>
@@ -34662,7 +34693,7 @@
         <v>14</v>
       </c>
       <c r="G942" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H942" s="4">
         <v>9</v>
@@ -35222,7 +35253,7 @@
         <v>14</v>
       </c>
       <c r="G958" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H958" s="4">
         <v>151</v>
@@ -35677,7 +35708,7 @@
         <v>14</v>
       </c>
       <c r="G971" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H971" s="4">
         <v>2</v>
@@ -35782,7 +35813,7 @@
         <v>14</v>
       </c>
       <c r="G974" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H974" s="4">
         <v>50</v>
@@ -36237,7 +36268,7 @@
         <v>14</v>
       </c>
       <c r="G987" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H987" s="4">
         <v>5</v>
@@ -36377,7 +36408,7 @@
         <v>14</v>
       </c>
       <c r="G991" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H991" s="4">
         <v>66</v>
@@ -36481,8 +36512,8 @@
       <c r="F994" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G994" t="s" s="2">
-        <v>118</v>
+      <c r="G994" s="6">
+        <v>409230010</v>
       </c>
       <c r="H994" s="4">
         <v>945</v>
@@ -36517,7 +36548,7 @@
         <v>14</v>
       </c>
       <c r="G995" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H995" s="4">
         <v>2</v>
@@ -36552,7 +36583,7 @@
         <v>14</v>
       </c>
       <c r="G996" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H996" s="4">
         <v>27</v>
@@ -36587,7 +36618,7 @@
         <v>14</v>
       </c>
       <c r="G997" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H997" s="4">
         <v>18</v>
@@ -36622,7 +36653,7 @@
         <v>14</v>
       </c>
       <c r="G998" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H998" s="4">
         <v>9</v>
@@ -36656,8 +36687,8 @@
       <c r="F999" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G999" t="s" s="2">
-        <v>127</v>
+      <c r="G999" s="6">
+        <v>501290006</v>
       </c>
       <c r="H999" s="4">
         <v>1</v>
@@ -36692,7 +36723,7 @@
         <v>14</v>
       </c>
       <c r="G1000" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H1000" s="4">
         <v>1</v>
@@ -36727,7 +36758,7 @@
         <v>14</v>
       </c>
       <c r="G1001" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H1001" s="4">
         <v>4</v>
